--- a/biology/Histoire de la zoologie et de la botanique/Antun_Korlević/Antun_Korlević.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Antun_Korlević/Antun_Korlević.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antun_Korlevi%C4%87</t>
+          <t>Antun_Korlević</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antun Korlević est un entomologiste, né le 13 juin 1851 à ·terne, Višnjan et mort le 28 janvier 1915 à Zagreb.
 Il enseigne dans plusieurs villes de Croatie avant de devenir le premier professeur d’entomologie à l’université de Zagreb en 1899. Après s’être intéressé aux coléoptères, il se spécialise dans les hémiptères ainsi que les hyménoptères.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antun_Korlevi%C4%87</t>
+          <t>Antun_Korlević</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Guido Nonveiller (2001). Pioneers of the Research on the Insects of Dalmatia.  Croatian Natural History Museum (Zagreb) : 390 p.
  Portail de l’histoire de la zoologie et de la botanique   Portail de l’entomologie   Portail de la zoologie                   </t>
